--- a/ОСиС/Лабораторные работы/15/Итоги.xlsx
+++ b/ОСиС/Лабораторные работы/15/Итоги.xlsx
@@ -15,9 +15,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>Сжатие файлов офисных документов ахриватором 7z</t>
-  </si>
   <si>
     <t>Исходный размер</t>
   </si>
@@ -43,21 +40,6 @@
     <t>%</t>
   </si>
   <si>
-    <t>1_1.zip</t>
-  </si>
-  <si>
-    <t>1_3.zip</t>
-  </si>
-  <si>
-    <t>1_5.zip</t>
-  </si>
-  <si>
-    <t>1_7.zip</t>
-  </si>
-  <si>
-    <t>1_9.zip</t>
-  </si>
-  <si>
     <t>Метод</t>
   </si>
   <si>
@@ -74,6 +56,24 @@
   </si>
   <si>
     <t>Максимальный</t>
+  </si>
+  <si>
+    <t>1_1.rar</t>
+  </si>
+  <si>
+    <t>1_2.rar</t>
+  </si>
+  <si>
+    <t>1_3.rar</t>
+  </si>
+  <si>
+    <t>1_4.rar</t>
+  </si>
+  <si>
+    <t>1_5.rar</t>
+  </si>
+  <si>
+    <t>Сжатие файлов офисных документов ахриватором winrar</t>
   </si>
 </sst>
 </file>
@@ -97,7 +97,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -105,14 +105,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -128,6 +145,2624 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Изменение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>размера</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> архива от степени сжатия</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$D$4:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7847258</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7792697</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7787749</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7787570</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7787513</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="552264232"/>
+        <c:axId val="552263448"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="552264232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="552263448"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="552263448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="552264232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Сжатие в </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>%</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$E$4:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>91.337589018340012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>90.702530225264823</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>90.644938338969922</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>90.642854881482691</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90.642191434126431</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="632406616"/>
+        <c:axId val="632407008"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="632406616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="632407008"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="632407008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="632406616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Улучшение в соответствии с предыдущим</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$G$5:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>54561</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4948</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="636477024"/>
+        <c:axId val="636478200"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="636477024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="636478200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="636478200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="636477024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>404283</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>8466</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>472016</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>21166</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>84666</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>467783</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>97366</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>357716</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>425449</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -420,178 +3055,197 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.5">
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>8591465</v>
+        <v>8591488</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2">
-        <v>7903280</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="3">
+        <v>7847258</v>
+      </c>
+      <c r="E4" s="2">
         <f>D4 / $D$2 * 100</f>
-        <v>91.989899277946193</v>
-      </c>
-      <c r="F4" s="1">
+        <v>91.337589018340012</v>
+      </c>
+      <c r="F4" s="4">
         <f>$D$2 - D4</f>
-        <v>688185</v>
-      </c>
-      <c r="G4" t="s">
+        <v>744230</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="H4" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="2">
-        <v>7903280</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="3">
+        <v>7792697</v>
+      </c>
+      <c r="E5" s="2">
         <f t="shared" ref="E5:E8" si="0">D5 / $D$2 * 100</f>
-        <v>91.989899277946193</v>
-      </c>
-      <c r="F5" s="1">
+        <v>90.702530225264823</v>
+      </c>
+      <c r="F5" s="4">
         <f t="shared" ref="F5:F8" si="1">$D$2 - D5</f>
-        <v>688185</v>
-      </c>
-      <c r="G5" s="1">
+        <v>798791</v>
+      </c>
+      <c r="G5" s="4">
         <f>F5 - F4</f>
-        <v>0</v>
+        <v>54561</v>
+      </c>
+      <c r="H5" s="2">
+        <f>G5/$D$2 * 100</f>
+        <v>0.63505879307519253</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="2">
-        <v>7888275</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="3">
+        <v>7787749</v>
+      </c>
+      <c r="E6" s="2">
         <f t="shared" si="0"/>
-        <v>91.815249203715538</v>
-      </c>
-      <c r="F6" s="1">
+        <v>90.644938338969922</v>
+      </c>
+      <c r="F6" s="4">
         <f t="shared" si="1"/>
-        <v>703190</v>
-      </c>
-      <c r="G6" s="1">
+        <v>803739</v>
+      </c>
+      <c r="G6" s="4">
         <f t="shared" ref="G6:G8" si="2">F6 - F5</f>
-        <v>15005</v>
+        <v>4948</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" ref="H6:H8" si="3">G6/$D$2 * 100</f>
+        <v>5.7591886294900252E-2</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="2">
-        <v>7869520</v>
-      </c>
-      <c r="E7">
+      <c r="D7" s="3">
+        <v>7787570</v>
+      </c>
+      <c r="E7" s="2">
         <f t="shared" si="0"/>
-        <v>91.596951160250313</v>
-      </c>
-      <c r="F7" s="1">
+        <v>90.642854881482691</v>
+      </c>
+      <c r="F7" s="4">
         <f t="shared" si="1"/>
-        <v>721945</v>
-      </c>
-      <c r="G7" s="1">
+        <v>803918</v>
+      </c>
+      <c r="G7" s="4">
         <f t="shared" si="2"/>
-        <v>18755</v>
+        <v>179</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="3"/>
+        <v>2.0834574872245644E-3</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="2">
-        <v>7863168</v>
-      </c>
-      <c r="E8">
+      <c r="D8" s="3">
+        <v>7787513</v>
+      </c>
+      <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>91.523017320096173</v>
-      </c>
-      <c r="F8" s="1">
+        <v>90.642191434126431</v>
+      </c>
+      <c r="F8" s="4">
         <f t="shared" si="1"/>
-        <v>728297</v>
-      </c>
-      <c r="G8" s="1">
+        <v>803975</v>
+      </c>
+      <c r="G8" s="4">
         <f t="shared" si="2"/>
-        <v>6352</v>
+        <v>57</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="3"/>
+        <v>6.6344735626704013E-4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ОСиС/Лабораторные работы/15/Итоги.xlsx
+++ b/ОСиС/Лабораторные работы/15/Итоги.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="107" windowWidth="14807" windowHeight="8013"/>
+    <workbookView xWindow="240" yWindow="107" windowWidth="14807" windowHeight="8013" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
   <si>
     <t>Исходный размер</t>
   </si>
@@ -74,6 +75,21 @@
   </si>
   <si>
     <t>Сжатие файлов офисных документов ахриватором winrar</t>
+  </si>
+  <si>
+    <t>2_1.rar</t>
+  </si>
+  <si>
+    <t>2_2.rar</t>
+  </si>
+  <si>
+    <t>2_3.rar</t>
+  </si>
+  <si>
+    <t>2_4.rar</t>
+  </si>
+  <si>
+    <t>2_5.rar</t>
   </si>
 </sst>
 </file>
@@ -1002,6 +1018,890 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Изменение</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>размера архива от степени сжатия</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12878455818022747"/>
+          <c:y val="3.7037037037037035E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист2!$D$4:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>295869</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>278167</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>271827</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>271591</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>271453</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="642807736"/>
+        <c:axId val="642808128"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="642807736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="642808128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="642808128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="642807736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Сжатие в </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>%</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист2!$E$4:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>18.22558230645841</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.13513600086733</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.74459088859485</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.730053247191648</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.721552422981301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="636544224"/>
+        <c:axId val="636546184"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="636544224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="636546184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="636546184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="636544224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1600" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Улучшение в соответствии с предыдущим</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="1600">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.22865966754155731"/>
+          <c:y val="4.9986608514537588E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист2!$G$5:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>17702</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6340</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>138</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="117298384"/>
+        <c:axId val="117298776"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="117298384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="117298776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="117298776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="117298384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1122,6 +2022,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2155,6 +3175,1554 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2748,6 +5316,101 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>116417</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>67733</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>129117</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>433916</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>124883</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>173566</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>192616</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>21167</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3054,8 +5717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -3248,4 +5911,204 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1623372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3">
+        <v>295869</v>
+      </c>
+      <c r="E4" s="2">
+        <f>D4 / $D$2 * 100</f>
+        <v>18.22558230645841</v>
+      </c>
+      <c r="F4" s="4">
+        <f>$D$2 - D4</f>
+        <v>1327503</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3">
+        <v>278167</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" ref="E5:E8" si="0">D5 / $D$2 * 100</f>
+        <v>17.13513600086733</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" ref="F5:F8" si="1">$D$2 - D5</f>
+        <v>1345205</v>
+      </c>
+      <c r="G5" s="4">
+        <f>F5 - F4</f>
+        <v>17702</v>
+      </c>
+      <c r="H5" s="2">
+        <f>G5/$D$2 * 100</f>
+        <v>1.0904463055910782</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A6" s="2">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3">
+        <v>271827</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>16.74459088859485</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="1"/>
+        <v>1351545</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" ref="G6:G8" si="2">F6 - F5</f>
+        <v>6340</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" ref="H6:H8" si="3">G6/$D$2 * 100</f>
+        <v>0.39054511227247979</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3">
+        <v>271591</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>16.730053247191648</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="1"/>
+        <v>1351781</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="2"/>
+        <v>236</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="3"/>
+        <v>1.4537641403202715E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.5">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="3">
+        <v>271453</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>16.721552422981301</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="1"/>
+        <v>1351919</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="2"/>
+        <v>138</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="3"/>
+        <v>8.5008242103473512E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/ОСиС/Лабораторные работы/15/Итоги.xlsx
+++ b/ОСиС/Лабораторные работы/15/Итоги.xlsx
@@ -302,11 +302,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="552264232"/>
-        <c:axId val="552263448"/>
+        <c:axId val="217058920"/>
+        <c:axId val="216944048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="552264232"/>
+        <c:axId val="217058920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -348,7 +348,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="552263448"/>
+        <c:crossAx val="216944048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -356,7 +356,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="552263448"/>
+        <c:axId val="216944048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -407,7 +407,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="552264232"/>
+        <c:crossAx val="217058920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -587,11 +587,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="632406616"/>
-        <c:axId val="632407008"/>
+        <c:axId val="214725216"/>
+        <c:axId val="452093680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="632406616"/>
+        <c:axId val="214725216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -633,7 +633,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="632407008"/>
+        <c:crossAx val="452093680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -641,7 +641,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="632407008"/>
+        <c:axId val="452093680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -692,7 +692,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="632406616"/>
+        <c:crossAx val="214725216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -864,11 +864,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="636477024"/>
-        <c:axId val="636478200"/>
+        <c:axId val="452100312"/>
+        <c:axId val="452113016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="636477024"/>
+        <c:axId val="452100312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -910,7 +910,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="636478200"/>
+        <c:crossAx val="452113016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -918,7 +918,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="636478200"/>
+        <c:axId val="452113016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -969,7 +969,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="636477024"/>
+        <c:crossAx val="452100312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1168,11 +1168,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="642807736"/>
-        <c:axId val="642808128"/>
+        <c:axId val="452195408"/>
+        <c:axId val="452195800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="642807736"/>
+        <c:axId val="452195408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1214,7 +1214,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="642808128"/>
+        <c:crossAx val="452195800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1222,7 +1222,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="642808128"/>
+        <c:axId val="452195800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1273,7 +1273,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="642807736"/>
+        <c:crossAx val="452195408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1459,11 +1459,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="636544224"/>
-        <c:axId val="636546184"/>
+        <c:axId val="452197760"/>
+        <c:axId val="452198152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="636544224"/>
+        <c:axId val="452197760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1505,7 +1505,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="636546184"/>
+        <c:crossAx val="452198152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1513,7 +1513,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="636546184"/>
+        <c:axId val="452198152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1564,7 +1564,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="636544224"/>
+        <c:crossAx val="452197760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1748,11 +1748,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="117298384"/>
-        <c:axId val="117298776"/>
+        <c:axId val="452197368"/>
+        <c:axId val="452194624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="117298384"/>
+        <c:axId val="452197368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1794,7 +1794,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117298776"/>
+        <c:crossAx val="452194624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1802,7 +1802,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="117298776"/>
+        <c:axId val="452194624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1853,7 +1853,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117298384"/>
+        <c:crossAx val="452197368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5917,8 +5917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
